--- a/biology/Zoologie/Antje_(morse)/Antje_(morse).xlsx
+++ b/biology/Zoologie/Antje_(morse)/Antje_(morse).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antje (née le 25 mai 1976 — 17 juillet 2003 à Hambourg) était une femelle morse du Pacifique (Odobenus rosmarus divergens) du zoo Tierpark Hagenbeck, et fut longtemps la mascotte de la Norddeutscher Rundfunk (NDR) (il apparaît même quelquefois sur le logo de cette dernière).
 Il y eut des rumeurs selon lesquelles Antje était un mâle, confortées par le chef de taxidermie au musée zoologique de l'université de Hambourg, mais les tétines sur le ventre de l'animal ne laissent pas de doute possible.
